--- a/medicine/Œil et vue/Épithélium_pigmentaire_rétinien/Épithélium_pigmentaire_rétinien.xlsx
+++ b/medicine/Œil et vue/Épithélium_pigmentaire_rétinien/Épithélium_pigmentaire_rétinien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pith%C3%A9lium_pigmentaire_r%C3%A9tinien</t>
+          <t>Épithélium_pigmentaire_rétinien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithélium pigmentaire rétinien est la couche cellulaire pigmentée située sur la surface externe de la rétine neurosensorielle[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithélium pigmentaire rétinien est la couche cellulaire pigmentée située sur la surface externe de la rétine neurosensorielle.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pith%C3%A9lium_pigmentaire_r%C3%A9tinien</t>
+          <t>Épithélium_pigmentaire_rétinien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épithélium pigmentaire rétinien est composé d'une seule couche de cellules hexagonales densément chargées de granules de pigment.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pith%C3%A9lium_pigmentaire_r%C3%A9tinien</t>
+          <t>Épithélium_pigmentaire_rétinien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épithélium pigmentaire rétinien a plusieurs fonctions, à savoir l'absorption de la lumière, le transport épithélial, la mise en tampon des ions spatiaux, le cycle visuel, la phagocytose, la sécrétion et la modulation immunitaire.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pith%C3%A9lium_pigmentaire_r%C3%A9tinien</t>
+          <t>Épithélium_pigmentaire_rétinien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les yeux d'albinos, les cellules de cette couche ne contiennent aucun pigment. Le dysfonctionnement de l'épithélium pigmentaire rétinien est trouvé dans la dégénérescence maculaire liée à l'âge et la rétinite pigmentaire. Il est aussi impliqué dans la rétinopathie diabétique[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les yeux d'albinos, les cellules de cette couche ne contiennent aucun pigment. Le dysfonctionnement de l'épithélium pigmentaire rétinien est trouvé dans la dégénérescence maculaire liée à l'âge et la rétinite pigmentaire. Il est aussi impliqué dans la rétinopathie diabétique.
 </t>
         </is>
       </c>
